--- a/processing/all_data.xlsx
+++ b/processing/all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughm\My Drive\HonoursThesis\HM_Lag_Recovery\processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FD06B4-891D-4CF6-8EAA-02E566108DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE223846-D6DA-470D-911E-874574574B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{ECC4A8CD-D841-4168-9CEF-2B7155F22044}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{ECC4A8CD-D841-4168-9CEF-2B7155F22044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="line_recovered_lags" sheetId="3" r:id="rId4"/>
     <sheet name="Data Cuts" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">line_recovered_lags!$A$1:$AC$96</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -357,7 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -394,6 +397,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -800,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36980A2F-D438-45C5-9B4E-1BCC98DD4F5A}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7637,8 +7641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A748D3D-BAAA-4628-B96E-590FA3B64DEC}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="N76" sqref="M76:N84"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15629,10 +15633,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20108CAA-8DC4-494B-B66E-1B523C81894A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AI96"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Z2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16004,40 +16009,43 @@
         <f>_xlfn.XLOOKUP(A5,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>36.734999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>42.158999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>19.498000000000001</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="20"/>
+      <c r="G5" s="3">
         <v>12.52</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>423.947</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>568.76700000000005</v>
       </c>
-      <c r="K5">
+      <c r="J5" s="20"/>
+      <c r="K5" s="3">
         <v>37.401000000000003</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>42.427999999999997</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>48.081000000000003</v>
       </c>
-      <c r="O5">
+      <c r="N5" s="20"/>
+      <c r="O5" s="3">
         <v>12.507</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>417.35599999999999</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>571.59900000000005</v>
       </c>
       <c r="S5" t="b">
@@ -16097,40 +16105,43 @@
         <f>_xlfn.XLOOKUP(A6,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>789.78399999999999</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>781.42899999999997</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>34.771999999999998</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="20"/>
+      <c r="G6" s="3">
         <v>687.49199999999996</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>505.41699999999997</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>533.31500000000005</v>
       </c>
-      <c r="K6">
+      <c r="J6" s="20"/>
+      <c r="K6" s="3">
         <v>789.74400000000003</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>782.10199999999998</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>33.341999999999999</v>
       </c>
-      <c r="O6">
+      <c r="N6" s="20"/>
+      <c r="O6" s="3">
         <v>674.99</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>506.59</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>530.71799999999996</v>
       </c>
       <c r="S6" t="b">
@@ -16469,40 +16480,43 @@
         <f>_xlfn.XLOOKUP(A10,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>517.79200000000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>518.03300000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>19.917000000000002</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="20"/>
+      <c r="G10" s="3">
         <v>25.012</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>390.673</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>563.08600000000001</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="20"/>
+      <c r="K10" s="3">
         <v>515.80499999999995</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>518.08900000000006</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>19.286000000000001</v>
       </c>
-      <c r="O10">
+      <c r="N10" s="20"/>
+      <c r="O10" s="3">
         <v>512.48800000000006</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>432.03800000000001</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <v>534.76300000000003</v>
       </c>
       <c r="S10" t="b">
@@ -16562,40 +16576,43 @@
         <f>_xlfn.XLOOKUP(A11,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>193.08799999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>155.86099999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>77.137</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="20"/>
+      <c r="G11" s="3">
         <v>287.51299999999998</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>341.41</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>529.10599999999999</v>
       </c>
-      <c r="K11">
+      <c r="J11" s="20"/>
+      <c r="K11" s="3">
         <v>194.20599999999999</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>153.19999999999999</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>78.619</v>
       </c>
-      <c r="O11">
+      <c r="N11" s="20"/>
+      <c r="O11" s="3">
         <v>312.49799999999999</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>331.27199999999999</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>528.72799999999995</v>
       </c>
       <c r="S11" t="b">
@@ -16655,40 +16672,43 @@
         <f>_xlfn.XLOOKUP(A12,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>532.81399999999996</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>529.99199999999996</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>38.485999999999997</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="20"/>
+      <c r="G12" s="3">
         <v>187.494</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>340.42599999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>510.21499999999997</v>
       </c>
-      <c r="K12">
+      <c r="J12" s="20"/>
+      <c r="K12" s="3">
         <v>530.83699999999999</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>529.899</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>37.927</v>
       </c>
-      <c r="O12">
+      <c r="N12" s="20"/>
+      <c r="O12" s="3">
         <v>199.99799999999999</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>370.423</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>512.24599999999998</v>
       </c>
       <c r="S12" t="b">
@@ -17205,7 +17225,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -17306,40 +17326,43 @@
         <f>_xlfn.XLOOKUP(A19,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>131.19800000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>135.56100000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>23.795999999999999</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="20"/>
+      <c r="G19" s="3">
         <v>587.48699999999997</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>441.09800000000001</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>553.66800000000001</v>
       </c>
-      <c r="K19">
+      <c r="J19" s="20"/>
+      <c r="K19" s="3">
         <v>131.745</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>135.46799999999999</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>23.908999999999999</v>
       </c>
-      <c r="O19">
+      <c r="N19" s="20"/>
+      <c r="O19" s="3">
         <v>112.51</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>367.74799999999999</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="3">
         <v>553.53</v>
       </c>
       <c r="S19" t="b">
@@ -17399,40 +17422,43 @@
         <f>_xlfn.XLOOKUP(A20,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>213.93799999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>194.941</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>59.238999999999997</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="20"/>
+      <c r="G20" s="3">
         <v>12.54</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>394.18</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>539.95500000000004</v>
       </c>
-      <c r="K20">
+      <c r="J20" s="20"/>
+      <c r="K20" s="3">
         <v>212.78</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>195.26400000000001</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>59.881</v>
       </c>
-      <c r="O20">
+      <c r="N20" s="20"/>
+      <c r="O20" s="3">
         <v>12.537000000000001</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>396.036</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>547.91</v>
       </c>
       <c r="S20" t="b">
@@ -17585,40 +17611,43 @@
         <f>_xlfn.XLOOKUP(A22,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>598.01199999999994</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>597.13</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>28.44</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="20"/>
+      <c r="G22" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>348.94799999999998</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>569.95600000000002</v>
       </c>
-      <c r="K22">
+      <c r="J22" s="20"/>
+      <c r="K22" s="3">
         <v>596.53</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>597.07000000000005</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>28.587</v>
       </c>
-      <c r="O22">
+      <c r="N22" s="20"/>
+      <c r="O22" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>337.88400000000001</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="3">
         <v>564.41499999999996</v>
       </c>
       <c r="S22" t="b">
@@ -17670,7 +17699,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -17763,7 +17792,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -17864,40 +17893,43 @@
         <f>_xlfn.XLOOKUP(A25,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>526.03099999999995</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>535.90300000000002</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>70.081999999999994</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="20"/>
+      <c r="G25" s="3">
         <v>712.48</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>595.34299999999996</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>509.72500000000002</v>
       </c>
-      <c r="K25">
+      <c r="J25" s="20"/>
+      <c r="K25" s="3">
         <v>525.91399999999999</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>534.24599999999998</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>63.28</v>
       </c>
-      <c r="O25">
+      <c r="N25" s="20"/>
+      <c r="O25" s="3">
         <v>718.74599999999998</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>576.36800000000005</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>505.52499999999998</v>
       </c>
       <c r="S25" t="b">
@@ -17957,40 +17989,43 @@
         <f>_xlfn.XLOOKUP(A26,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>521.221</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>524.98900000000003</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>19.420000000000002</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="20"/>
+      <c r="G26" s="3">
         <v>412.50599999999997</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>406.44</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>526.52</v>
       </c>
-      <c r="K26">
+      <c r="J26" s="20"/>
+      <c r="K26" s="3">
         <v>519.89400000000001</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>524.75599999999997</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>19.143999999999998</v>
       </c>
-      <c r="O26">
+      <c r="N26" s="20"/>
+      <c r="O26" s="3">
         <v>524.99900000000002</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>412.44900000000001</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="3">
         <v>508.56799999999998</v>
       </c>
       <c r="S26" t="b">
@@ -18042,7 +18077,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -18329,40 +18364,43 @@
         <f>_xlfn.XLOOKUP(A30,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>145.541</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>150.63</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>27.2</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="20"/>
+      <c r="G30" s="3">
         <v>25.006</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>330.73500000000001</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>566.89300000000003</v>
       </c>
-      <c r="K30">
+      <c r="J30" s="20"/>
+      <c r="K30" s="3">
         <v>149.017</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>150.833</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>27.195</v>
       </c>
-      <c r="O30">
+      <c r="N30" s="20"/>
+      <c r="O30" s="3">
         <v>100.001</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>346.86799999999999</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="3">
         <v>559.12</v>
       </c>
       <c r="S30" t="b">
@@ -18422,40 +18460,43 @@
         <f>_xlfn.XLOOKUP(A31,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>152.81200000000001</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>156.26300000000001</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>21.561</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="20"/>
+      <c r="G31" s="3">
         <v>787.49400000000003</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>408.16800000000001</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>614.85599999999999</v>
       </c>
-      <c r="K31">
+      <c r="J31" s="20"/>
+      <c r="K31" s="3">
         <v>149.286</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>156.29400000000001</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>22.018000000000001</v>
       </c>
-      <c r="O31">
+      <c r="N31" s="20"/>
+      <c r="O31" s="3">
         <v>175.00200000000001</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>409.72800000000001</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="3">
         <v>589.12099999999998</v>
       </c>
       <c r="S31" t="b">
@@ -18701,40 +18742,43 @@
         <f>_xlfn.XLOOKUP(A34,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>517.40800000000002</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>517.39200000000005</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>27.09</v>
       </c>
-      <c r="G34">
+      <c r="F34" s="20"/>
+      <c r="G34" s="3">
         <v>662.49099999999999</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>390.60899999999998</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>585.39800000000002</v>
       </c>
-      <c r="K34">
+      <c r="J34" s="20"/>
+      <c r="K34" s="3">
         <v>516.04399999999998</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>517.779</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>26.370999999999999</v>
       </c>
-      <c r="O34">
+      <c r="N34" s="20"/>
+      <c r="O34" s="3">
         <v>512.50300000000004</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>265.39100000000002</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="3">
         <v>500.41899999999998</v>
       </c>
       <c r="S34" t="b">
@@ -18786,7 +18830,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -18980,40 +19024,43 @@
         <f>_xlfn.XLOOKUP(A37,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>794.51900000000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>782.35400000000004</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>57.624000000000002</v>
       </c>
-      <c r="G37">
+      <c r="F37" s="20"/>
+      <c r="G37" s="3">
         <v>762.49099999999999</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>418.15499999999997</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>542.77</v>
       </c>
-      <c r="K37">
+      <c r="J37" s="20"/>
+      <c r="K37" s="3">
         <v>794.34799999999996</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>782.45600000000002</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="3">
         <v>54.478999999999999</v>
       </c>
-      <c r="O37">
+      <c r="N37" s="20"/>
+      <c r="O37" s="3">
         <v>787.48500000000001</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="3">
         <v>429.61399999999998</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="3">
         <v>552.51400000000001</v>
       </c>
       <c r="S37" t="b">
@@ -19073,40 +19120,43 @@
         <f>_xlfn.XLOOKUP(A38,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>533.34500000000003</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>532.74800000000005</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>20.454999999999998</v>
       </c>
-      <c r="G38">
+      <c r="F38" s="20"/>
+      <c r="G38" s="3">
         <v>299.959</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>373.69</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>488.12900000000002</v>
       </c>
-      <c r="K38">
+      <c r="J38" s="20"/>
+      <c r="K38" s="3">
         <v>532.255</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>532.84</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <v>20.515000000000001</v>
       </c>
-      <c r="O38">
+      <c r="N38" s="20"/>
+      <c r="O38" s="3">
         <v>512.51300000000003</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="3">
         <v>402.58800000000002</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="3">
         <v>473.45400000000001</v>
       </c>
       <c r="S38" t="b">
@@ -19631,40 +19681,43 @@
         <f>_xlfn.XLOOKUP(A44,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>79.811000000000007</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>80.715000000000003</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>75.006</v>
       </c>
-      <c r="G44">
+      <c r="F44" s="20"/>
+      <c r="G44" s="3">
         <v>12.503</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>378.39800000000002</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>483.34300000000002</v>
       </c>
-      <c r="K44">
+      <c r="J44" s="20"/>
+      <c r="K44" s="3">
         <v>73.632999999999996</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>80.551000000000002</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="3">
         <v>1.5309999999999999</v>
       </c>
-      <c r="O44">
+      <c r="N44" s="20"/>
+      <c r="O44" s="3">
         <v>450.00900000000001</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="3">
         <v>389.154</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="3">
         <v>461.39600000000002</v>
       </c>
       <c r="S44" t="b">
@@ -20189,40 +20242,43 @@
         <f>_xlfn.XLOOKUP(A50,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>633.93499999999995</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>632.71299999999997</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>26.36</v>
       </c>
-      <c r="G50">
+      <c r="F50" s="20"/>
+      <c r="G50" s="3">
         <v>312.47899999999998</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>310.63600000000002</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>360.25400000000002</v>
       </c>
-      <c r="K50">
+      <c r="J50" s="20"/>
+      <c r="K50" s="3">
         <v>628.53499999999997</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>633.08500000000004</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="3">
         <v>26.946999999999999</v>
       </c>
-      <c r="O50">
+      <c r="N50" s="20"/>
+      <c r="O50" s="3">
         <v>324.96899999999999</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="3">
         <v>331.322</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="3">
         <v>412.3</v>
       </c>
       <c r="S50" t="b">
@@ -20553,7 +20609,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -20646,7 +20702,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -20747,40 +20803,43 @@
         <f>_xlfn.XLOOKUP(A56,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>560.66999999999996</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>556.13800000000003</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>56.17</v>
       </c>
-      <c r="G56">
+      <c r="F56" s="20"/>
+      <c r="G56" s="3">
         <v>12.519</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>381.22</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>569.53800000000001</v>
       </c>
-      <c r="K56">
+      <c r="J56" s="20"/>
+      <c r="K56" s="3">
         <v>564.00099999999998</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>556.88199999999995</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="3">
         <v>52.999000000000002</v>
       </c>
-      <c r="O56">
+      <c r="N56" s="20"/>
+      <c r="O56" s="3">
         <v>37.509</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="3">
         <v>385.077</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="3">
         <v>558.14499999999998</v>
       </c>
       <c r="S56" t="b">
@@ -20840,40 +20899,43 @@
         <f>_xlfn.XLOOKUP(A57,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>554.93299999999999</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>525.64</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>64.183999999999997</v>
       </c>
-      <c r="G57">
+      <c r="F57" s="20"/>
+      <c r="G57" s="3">
         <v>687.48800000000006</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>515.88900000000001</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>594.25400000000002</v>
       </c>
-      <c r="K57">
+      <c r="J57" s="20"/>
+      <c r="K57" s="3">
         <v>556.62</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>524.98199999999997</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="3">
         <v>63.162999999999997</v>
       </c>
-      <c r="O57">
+      <c r="N57" s="20"/>
+      <c r="O57" s="3">
         <v>687.49699999999996</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="3">
         <v>528.50800000000004</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="3">
         <v>581.726</v>
       </c>
       <c r="S57" t="b">
@@ -21305,40 +21367,43 @@
         <f>_xlfn.XLOOKUP(A62,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>160.53200000000001</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>162.51599999999999</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>13.157</v>
       </c>
-      <c r="G62">
+      <c r="F62" s="20"/>
+      <c r="G62" s="3">
         <v>150.01499999999999</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>287.16000000000003</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>530.40599999999995</v>
       </c>
-      <c r="K62">
+      <c r="J62" s="20"/>
+      <c r="K62" s="3">
         <v>161.125</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>162.50399999999999</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="3">
         <v>13.157</v>
       </c>
-      <c r="O62">
+      <c r="N62" s="20"/>
+      <c r="O62" s="3">
         <v>137.50200000000001</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="3">
         <v>295.18400000000003</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="3">
         <v>511.46499999999997</v>
       </c>
       <c r="S62" t="b">
@@ -21584,40 +21649,43 @@
         <f>_xlfn.XLOOKUP(A65,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>187.268</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>181.578</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>61.72</v>
       </c>
-      <c r="G65">
+      <c r="F65" s="20"/>
+      <c r="G65" s="3">
         <v>637.49900000000002</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>396.50599999999997</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>541.38800000000003</v>
       </c>
-      <c r="K65">
+      <c r="J65" s="20"/>
+      <c r="K65" s="3">
         <v>189.434</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>180.62899999999999</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="3">
         <v>61.079000000000001</v>
       </c>
-      <c r="O65">
+      <c r="N65" s="20"/>
+      <c r="O65" s="3">
         <v>187.501</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="3">
         <v>357.49799999999999</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="3">
         <v>518.37</v>
       </c>
       <c r="S65" t="b">
@@ -21677,40 +21745,43 @@
         <f>_xlfn.XLOOKUP(A66,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>533.24800000000005</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>527.07299999999998</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>29.617999999999999</v>
       </c>
-      <c r="G66">
+      <c r="F66" s="20"/>
+      <c r="G66" s="3">
         <v>112.381</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>119.045</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>158.02799999999999</v>
       </c>
-      <c r="K66">
+      <c r="J66" s="20"/>
+      <c r="K66" s="3">
         <v>512.495</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>525.22799999999995</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="3">
         <v>29.312000000000001</v>
       </c>
-      <c r="O66">
+      <c r="N66" s="20"/>
+      <c r="O66" s="3">
         <v>112.477</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="3">
         <v>138.92099999999999</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="3">
         <v>375.42399999999998</v>
       </c>
       <c r="S66" t="b">
@@ -21863,40 +21934,43 @@
         <f>_xlfn.XLOOKUP(A68,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>168.703</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>179.42099999999999</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>34.475999999999999</v>
       </c>
-      <c r="G68">
+      <c r="F68" s="20"/>
+      <c r="G68" s="3">
         <v>37.526000000000003</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>388.19799999999998</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>532.84799999999996</v>
       </c>
-      <c r="K68">
+      <c r="J68" s="20"/>
+      <c r="K68" s="3">
         <v>169.27099999999999</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="3">
         <v>176.137</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="3">
         <v>37.448999999999998</v>
       </c>
-      <c r="O68">
+      <c r="N68" s="20"/>
+      <c r="O68" s="3">
         <v>175.00899999999999</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="3">
         <v>389.51900000000001</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="3">
         <v>528.73099999999999</v>
       </c>
       <c r="S68" t="b">
@@ -21956,40 +22030,43 @@
         <f>_xlfn.XLOOKUP(A69,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>605.87599999999998</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>552.55999999999995</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>69.731999999999999</v>
       </c>
-      <c r="G69">
+      <c r="F69" s="20"/>
+      <c r="G69" s="3">
         <v>650.00699999999995</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>454.23899999999998</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>487.91500000000002</v>
       </c>
-      <c r="K69">
+      <c r="J69" s="20"/>
+      <c r="K69" s="3">
         <v>605.85500000000002</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="3">
         <v>558.05799999999999</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="3">
         <v>68.882999999999996</v>
       </c>
-      <c r="O69">
+      <c r="N69" s="20"/>
+      <c r="O69" s="3">
         <v>649.99199999999996</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="3">
         <v>471.71</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="3">
         <v>481.11200000000002</v>
       </c>
       <c r="S69" t="b">
@@ -22041,7 +22118,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -22227,7 +22304,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -22514,40 +22591,43 @@
         <f>_xlfn.XLOOKUP(A75,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>505.52499999999998</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>512.74199999999996</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>39.570999999999998</v>
       </c>
-      <c r="G75">
+      <c r="F75" s="20"/>
+      <c r="G75" s="3">
         <v>699.98900000000003</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>619.16099999999994</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>518.15499999999997</v>
       </c>
-      <c r="K75">
+      <c r="J75" s="20"/>
+      <c r="K75" s="3">
         <v>507.04300000000001</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="3">
         <v>512.40599999999995</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="3">
         <v>37.110999999999997</v>
       </c>
-      <c r="O75">
+      <c r="N75" s="20"/>
+      <c r="O75" s="3">
         <v>700.00300000000004</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="3">
         <v>616.53200000000004</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="3">
         <v>535.78700000000003</v>
       </c>
       <c r="S75" t="b">
@@ -22607,40 +22687,43 @@
         <f>_xlfn.XLOOKUP(A76,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>522.54999999999995</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>546.03200000000004</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>41.508000000000003</v>
       </c>
-      <c r="G76">
+      <c r="F76" s="20"/>
+      <c r="G76" s="3">
         <v>225.03</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>285.98899999999998</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>509.17599999999999</v>
       </c>
-      <c r="K76">
+      <c r="J76" s="20"/>
+      <c r="K76" s="3">
         <v>522.11599999999999</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="3">
         <v>543.07899999999995</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="3">
         <v>44.832999999999998</v>
       </c>
-      <c r="O76">
+      <c r="N76" s="20"/>
+      <c r="O76" s="3">
         <v>512.49900000000002</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="3">
         <v>337.80500000000001</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="3">
         <v>525.03899999999999</v>
       </c>
       <c r="S76" t="b">
@@ -22793,40 +22876,43 @@
         <f>_xlfn.XLOOKUP(A78,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>132.911</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>140.74</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>44.625999999999998</v>
       </c>
-      <c r="G78">
+      <c r="F78" s="20"/>
+      <c r="G78" s="3">
         <v>12.500999999999999</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>262.154</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>475.38799999999998</v>
       </c>
-      <c r="K78">
+      <c r="J78" s="20"/>
+      <c r="K78" s="3">
         <v>132.80799999999999</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="3">
         <v>140.38999999999999</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="3">
         <v>45.92</v>
       </c>
-      <c r="O78">
+      <c r="N78" s="20"/>
+      <c r="O78" s="3">
         <v>137.48500000000001</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="3">
         <v>211.16</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="3">
         <v>450.74799999999999</v>
       </c>
       <c r="S78" t="b">
@@ -22886,40 +22972,43 @@
         <f>_xlfn.XLOOKUP(A79,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>567.03099999999995</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>560.17200000000003</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>25.933</v>
       </c>
-      <c r="G79">
+      <c r="F79" s="20"/>
+      <c r="G79" s="3">
         <v>624.98</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>419.858</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>511.517</v>
       </c>
-      <c r="K79">
+      <c r="J79" s="20"/>
+      <c r="K79" s="3">
         <v>566.91499999999996</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="3">
         <v>559.44899999999996</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="3">
         <v>26.018000000000001</v>
       </c>
-      <c r="O79">
+      <c r="N79" s="20"/>
+      <c r="O79" s="3">
         <v>550</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="3">
         <v>462.68400000000003</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="3">
         <v>484.21600000000001</v>
       </c>
       <c r="S79" t="b">
@@ -23072,40 +23161,43 @@
         <f>_xlfn.XLOOKUP(A81,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>520.42499999999995</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>522.00800000000004</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>18.861000000000001</v>
       </c>
-      <c r="G81">
+      <c r="F81" s="20"/>
+      <c r="G81" s="3">
         <v>612.50300000000004</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>467.27499999999998</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>538.65099999999995</v>
       </c>
-      <c r="K81">
+      <c r="J81" s="20"/>
+      <c r="K81" s="3">
         <v>516.06799999999998</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="3">
         <v>521.80899999999997</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="3">
         <v>18.981999999999999</v>
       </c>
-      <c r="O81">
+      <c r="N81" s="20"/>
+      <c r="O81" s="3">
         <v>787.49099999999999</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="3">
         <v>488.46499999999997</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="3">
         <v>555.28</v>
       </c>
       <c r="S81" t="b">
@@ -23258,40 +23350,43 @@
         <f>_xlfn.XLOOKUP(A83,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <v>176.26599999999999</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>175.208</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>28.053999999999998</v>
       </c>
-      <c r="G83">
+      <c r="F83" s="20"/>
+      <c r="G83" s="3">
         <v>349.98599999999999</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="3">
         <v>359.01799999999997</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>526.96299999999997</v>
       </c>
-      <c r="K83">
+      <c r="J83" s="20"/>
+      <c r="K83" s="3">
         <v>175.59</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="3">
         <v>174.82</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="3">
         <v>28.283999999999999</v>
       </c>
-      <c r="O83">
+      <c r="N83" s="20"/>
+      <c r="O83" s="3">
         <v>175.02099999999999</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="3">
         <v>358.65100000000001</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="3">
         <v>488.21</v>
       </c>
       <c r="S83" t="b">
@@ -23351,40 +23446,43 @@
         <f>_xlfn.XLOOKUP(A84,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <v>783.09799999999996</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>784.74699999999996</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>2.6949999999999998</v>
       </c>
-      <c r="G84">
+      <c r="F84" s="20"/>
+      <c r="G84" s="3">
         <v>762.5</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="3">
         <v>525.59400000000005</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <v>505.95100000000002</v>
       </c>
-      <c r="K84">
+      <c r="J84" s="20"/>
+      <c r="K84" s="3">
         <v>784.93100000000004</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="3">
         <v>784.77</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="3">
         <v>2.6480000000000001</v>
       </c>
-      <c r="O84">
+      <c r="N84" s="20"/>
+      <c r="O84" s="3">
         <v>625.00900000000001</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="3">
         <v>527.13499999999999</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="3">
         <v>490.51499999999999</v>
       </c>
       <c r="S84" t="b">
@@ -23444,40 +23542,43 @@
         <f>_xlfn.XLOOKUP(A85,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>100.77</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>133.33199999999999</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>57.738</v>
       </c>
-      <c r="G85">
+      <c r="F85" s="20"/>
+      <c r="G85" s="3">
         <v>25.015999999999998</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="3">
         <v>353.18900000000002</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>522.19399999999996</v>
       </c>
-      <c r="K85">
+      <c r="J85" s="20"/>
+      <c r="K85" s="3">
         <v>137.29599999999999</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="3">
         <v>134.047</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="3">
         <v>53.774999999999999</v>
       </c>
-      <c r="O85">
+      <c r="N85" s="20"/>
+      <c r="O85" s="3">
         <v>224.99799999999999</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="3">
         <v>356.286</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="3">
         <v>523.44000000000005</v>
       </c>
       <c r="S85" t="b">
@@ -23537,40 +23638,43 @@
         <f>_xlfn.XLOOKUP(A86,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <v>584.03599999999994</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>585.49300000000005</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>38.877000000000002</v>
       </c>
-      <c r="G86">
+      <c r="F86" s="20"/>
+      <c r="G86" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="3">
         <v>348.91699999999997</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>540.14700000000005</v>
       </c>
-      <c r="K86">
+      <c r="J86" s="20"/>
+      <c r="K86" s="3">
         <v>581.154</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="3">
         <v>582.64</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="3">
         <v>42.765000000000001</v>
       </c>
-      <c r="O86">
+      <c r="N86" s="20"/>
+      <c r="O86" s="3">
         <v>612.48400000000004</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="3">
         <v>370.24</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="3">
         <v>534.26</v>
       </c>
       <c r="S86" t="b">
@@ -23630,40 +23734,43 @@
         <f>_xlfn.XLOOKUP(A87,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <v>511.75299999999999</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>510.54500000000002</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>22.919</v>
       </c>
-      <c r="G87">
+      <c r="F87" s="20"/>
+      <c r="G87" s="3">
         <v>12.504</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="3">
         <v>314.77999999999997</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>483.60399999999998</v>
       </c>
-      <c r="K87">
+      <c r="J87" s="20"/>
+      <c r="K87" s="3">
         <v>511.21199999999999</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="3">
         <v>510.55900000000003</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="3">
         <v>23.286000000000001</v>
       </c>
-      <c r="O87">
+      <c r="N87" s="20"/>
+      <c r="O87" s="3">
         <v>12.504</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="3">
         <v>337.50099999999998</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" s="3">
         <v>498.12400000000002</v>
       </c>
       <c r="S87" t="b">
@@ -23723,40 +23830,43 @@
         <f>_xlfn.XLOOKUP(A88,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>555.16300000000001</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>557.26800000000003</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>33.305999999999997</v>
       </c>
-      <c r="G88">
+      <c r="F88" s="20"/>
+      <c r="G88" s="3">
         <v>325.00599999999997</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="3">
         <v>402.53500000000003</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <v>543.68899999999996</v>
       </c>
-      <c r="K88">
+      <c r="J88" s="20"/>
+      <c r="K88" s="3">
         <v>555.00599999999997</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="3">
         <v>557.93200000000002</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="3">
         <v>27.933</v>
       </c>
-      <c r="O88">
+      <c r="N88" s="20"/>
+      <c r="O88" s="3">
         <v>237.505</v>
       </c>
-      <c r="P88">
+      <c r="P88" s="3">
         <v>394.05399999999997</v>
       </c>
-      <c r="Q88">
+      <c r="Q88" s="3">
         <v>536</v>
       </c>
       <c r="S88" t="b">
@@ -24002,40 +24112,43 @@
         <f>_xlfn.XLOOKUP(A91,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>Hbeta/MGII</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>166.00700000000001</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>155.08000000000001</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>59.265999999999998</v>
       </c>
-      <c r="G91">
+      <c r="F91" s="20"/>
+      <c r="G91" s="3">
         <v>528.47900000000004</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>525.76400000000001</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>372.286</v>
       </c>
-      <c r="K91">
+      <c r="J91" s="20"/>
+      <c r="K91" s="3">
         <v>132.63900000000001</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="3">
         <v>134.012</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="3">
         <v>41.106000000000002</v>
       </c>
-      <c r="O91">
+      <c r="N91" s="20"/>
+      <c r="O91" s="3">
         <v>528.16499999999996</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="3">
         <v>530.91800000000001</v>
       </c>
-      <c r="Q91">
+      <c r="Q91" s="3">
         <v>29.158999999999999</v>
       </c>
       <c r="S91" t="b">
@@ -24188,40 +24301,43 @@
         <f>_xlfn.XLOOKUP(A93,Sheet1!$A$2:$A$93,Sheet1!$C$2:$C$93)</f>
         <v>MGII/CIV</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>546.02099999999996</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>545.94600000000003</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>13.635999999999999</v>
       </c>
-      <c r="G93">
+      <c r="F93" s="20"/>
+      <c r="G93" s="3">
         <v>699.97400000000005</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>416.99299999999999</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>568.85500000000002</v>
       </c>
-      <c r="K93">
+      <c r="J93" s="20"/>
+      <c r="K93" s="3">
         <v>545.93200000000002</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>545.80600000000004</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="3">
         <v>13.662000000000001</v>
       </c>
-      <c r="O93">
+      <c r="N93" s="20"/>
+      <c r="O93" s="3">
         <v>549.98699999999997</v>
       </c>
-      <c r="P93">
+      <c r="P93" s="3">
         <v>486.28399999999999</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" s="3">
         <v>532.72699999999998</v>
       </c>
       <c r="S93" t="b">
@@ -24273,13 +24389,27 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:35" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:35" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="N96" s="17"/>
       <c r="U96" s="17"/>
       <c r="X96" s="16"/>
       <c r="AA96" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC96" xr:uid="{20108CAA-8DC4-494B-B66E-1B523C81894A}">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="24">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="S2:T93 V2:W93 Y2:Z93 AB2:AC93">
     <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>TRUE</formula>
